--- a/PCB_Designs/MCollar_v1/0Schematic/SENSOR_BoM.xls.xlsx
+++ b/PCB_Designs/MCollar_v1/0Schematic/SENSOR_BoM.xls.xlsx
@@ -1273,14 +1273,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1"/>
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>FLOOR(B3*$B$53 +B3*$B$53*0.1,1)</f>
+        <f t="shared" ref="C2:C14" si="0">FLOOR(B3*$B$53 +B3*$B$53*0.1,1)</f>
         <v>11</v>
       </c>
       <c r="D3" t="s">
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>FLOOR(B4*$B$53 +B4*$B$53*0.1,1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D4" t="s">
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>FLOOR(B5*$B$53 +B5*$B$53*0.1,1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D5" t="s">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <f>FLOOR(B6*$B$53 +B6*$B$53*0.1,1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D6" t="s">
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <f>FLOOR(B7*$B$53 +B7*$B$53*0.1,1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D7" t="s">
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <f>FLOOR(B8*$B$53 +B8*$B$53*0.1,1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D8" t="s">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <f>FLOOR(B9*$B$53 +B9*$B$53*0.1,1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D9" t="s">
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <f>FLOOR(B10*$B$53 +B10*$B$53*0.1,1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D10" t="s">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <f>FLOOR(B11*$B$53 +B11*$B$53*0.1,1)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D11" t="s">
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <f>FLOOR(B12*$B$53 +B12*$B$53*0.1,1)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="D12" t="s">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <f>FLOOR(B13*$B$53 +B13*$B$53*0.1,1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D13" t="s">
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <f>FLOOR(B14*$B$53 +B14*$B$53*0.1,1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D14" t="s">
@@ -1761,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <f>CEILING(B16*$B$53 + IF((B16*$B$53*0.05) &lt; 5, 5, B16*$B$53*0.05),1)</f>
+        <f t="shared" ref="C15:C47" si="1">CEILING(B16*$B$53 + IF((B16*$B$53*0.05) &lt; 5, 5, B16*$B$53*0.05),1)</f>
         <v>35</v>
       </c>
       <c r="D16" t="s">
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <f>CEILING(B17*$B$53 + IF((B17*$B$53*0.05) &lt; 5, 5, B17*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D17" t="s">
@@ -1833,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <f>CEILING(B18*$B$53 + IF((B18*$B$53*0.05) &lt; 5, 5, B18*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D18" t="s">
@@ -1869,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <f>CEILING(B19*$B$53 + IF((B19*$B$53*0.05) &lt; 5, 5, B19*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D19" t="s">
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f>CEILING(B20*$B$53 + IF((B20*$B$53*0.05) &lt; 5, 5, B20*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D20" t="s">
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <f>CEILING(B21*$B$53 + IF((B21*$B$53*0.05) &lt; 5, 5, B21*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D21" t="s">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <f>CEILING(B22*$B$53 + IF((B22*$B$53*0.05) &lt; 5, 5, B22*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D22" t="s">
@@ -2013,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <f>CEILING(B23*$B$53 + IF((B23*$B$53*0.05) &lt; 5, 5, B23*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="D23" t="s">
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <f>CEILING(B24*$B$53 + IF((B24*$B$53*0.05) &lt; 5, 5, B24*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D24" t="s">
@@ -2085,7 +2085,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <f>CEILING(B25*$B$53 + IF((B25*$B$53*0.05) &lt; 5, 5, B25*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="D25" t="s">
@@ -2121,7 +2121,7 @@
         <v>20</v>
       </c>
       <c r="C26">
-        <f>CEILING(B26*$B$53 + IF((B26*$B$53*0.05) &lt; 5, 5, B26*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="D26" t="s">
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f>CEILING(B27*$B$53 + IF((B27*$B$53*0.05) &lt; 5, 5, B27*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D27" t="s">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <f>CEILING(B28*$B$53 + IF((B28*$B$53*0.05) &lt; 5, 5, B28*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D28" t="s">
@@ -2226,7 +2226,7 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <f>CEILING(B29*$B$53 + IF((B29*$B$53*0.05) &lt; 5, 5, B29*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="D29" t="s">
@@ -2262,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <f>CEILING(B30*$B$53 + IF((B30*$B$53*0.05) &lt; 5, 5, B30*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="D30" t="s">
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <f>CEILING(B31*$B$53 + IF((B31*$B$53*0.05) &lt; 5, 5, B31*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D31" t="s">
@@ -2331,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <f>CEILING(B32*$B$53 + IF((B32*$B$53*0.05) &lt; 5, 5, B32*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D32" t="s">
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <f>CEILING(B33*$B$53 + IF((B33*$B$53*0.05) &lt; 5, 5, B33*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D33" t="s">
@@ -2400,7 +2400,7 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <f>CEILING(B34*$B$53 + IF((B34*$B$53*0.05) &lt; 5, 5, B34*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D34" t="s">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <f>CEILING(B35*$B$53 + IF((B35*$B$53*0.05) &lt; 5, 5, B35*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D35" t="s">
@@ -2472,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <f>CEILING(B36*$B$53 + IF((B36*$B$53*0.05) &lt; 5, 5, B36*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D36" t="s">
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <f>CEILING(B37*$B$53 + IF((B37*$B$53*0.05) &lt; 5, 5, B37*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D37" t="s">
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <f>CEILING(B38*$B$53 + IF((B38*$B$53*0.05) &lt; 5, 5, B38*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D38" t="s">
@@ -2580,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <f>CEILING(B39*$B$53 + IF((B39*$B$53*0.05) &lt; 5, 5, B39*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D39" t="s">
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <f>CEILING(B40*$B$53 + IF((B40*$B$53*0.05) &lt; 5, 5, B40*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D40" t="s">
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <f>CEILING(B41*$B$53 + IF((B41*$B$53*0.05) &lt; 5, 5, B41*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D41" t="s">
@@ -2688,7 +2688,7 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <f>CEILING(B42*$B$53 + IF((B42*$B$53*0.05) &lt; 5, 5, B42*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="D42" t="s">
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <f>CEILING(B43*$B$53 + IF((B43*$B$53*0.05) &lt; 5, 5, B43*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D43" t="s">
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <f>CEILING(B44*$B$53 + IF((B44*$B$53*0.05) &lt; 5, 5, B44*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D44" t="s">
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <f>CEILING(B45*$B$53 + IF((B45*$B$53*0.05) &lt; 5, 5, B45*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D45" t="s">
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <f>CEILING(B46*$B$53 + IF((B46*$B$53*0.05) &lt; 5, 5, B46*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D46" t="s">
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <f>CEILING(B47*$B$53 + IF((B47*$B$53*0.05) &lt; 5, 5, B47*$B$53*0.05),1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D47" t="s">
@@ -2931,11 +2931,11 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <f>FLOOR(B49*$B$53+B49*$B$53*0.1,1)</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
